--- a/news_data/2017_02.xlsx
+++ b/news_data/2017_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,36 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>'김정남 암살용의자' 흐엉, 제주도 관광 추정 사진 페이스북에서 확인..모 가...</t>
+  </si>
+  <si>
+    <t>제주도 추천 여행코스는? 섭지코지, 성산일출봉 관광과 맛집 탐방</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제1차 이사회 및 대의원총회 개최</t>
+  </si>
+  <si>
+    <t>제주도 장애물 없는 관광환경 조성 5개년 계획 '시동'</t>
+  </si>
+  <si>
+    <t>제주도감사위원회 '오라관광단지 특혜없었다' 결론</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 내나라 여행박람회 '최우수 홍보부스'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 레저스포츠 관광객 유치 ‘시동’</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥기금 융자제도 개선…상반기 800억 지원</t>
+  </si>
+  <si>
+    <t>안상수 창원시장, 제주도청서 해양관광 프로젝트 등 특강</t>
+  </si>
+  <si>
+    <t>[2017년 2월 10일 시·도 주요일정]부산 구,군 의장단 주피터 반대 기자회견·...</t>
+  </si>
+  <si>
     <t>"사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘"</t>
   </si>
   <si>
@@ -52,28 +82,58 @@
     <t>호반건설, 제주도 '퍼시픽 랜드' 인수…레저·관광사업 확대</t>
   </si>
   <si>
-    <t>"사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 "사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2017.02.09 10:42 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 환경단체들, 제주사파리월드 도유지 임대 불허 촉구 제주시 구좌읍 일대에 조성되는 '제주 사파리월드' 사업예정지의 일부가 제주도 소유의 곶자왈로 확인돼 논란이 일 전망이다.곶자왈사람들과 제주환경운동연합, 제주참여환경연대는 9일 성명을 내고 "최근 곶자왈 내 개발사업이 잇따르는 가운데 제주도 소유의 곶자왈 마저 개발 사업으로 파괴될 위기에 놓여 제주도가 강조해온 곶자왈 보전정책이 뿌리 채 흔들리고 있다"고 규탄했다.'제주사파리월드 조성사업'은 지난달 13일부터 환경영향평가서 초안에 대한 주민공람이 이뤄지고 있다.이 사업은 구좌읍 동복리 산 1번지와 산 56번지 99만1072㎡ 부지에 관광호텔, 야외 사파리 등의 관광시설을 조성하는 내용으로 추진되고 있다. 사업예정지는 생태계가 가장 뛰어난 곶자왈 중 하나인 선흘곶 동백동산과 맞닿는 곶자왈이다.문제는 사업부지 전체면적 99만1072㎡ 중 25.5%인 25만2918㎡의 면적이 제주도가 소유한 도유지라는 점이다.이에 대해 환경단체들은 "이미 사업자는 제주도와의 임대계약을 통해 사업을 추진하겠다며 사업계획을 제출한 상태"라며 "현재 사업진행이 환경영향평가 초안 접수 단계까지 올 정도면 도유지 곶자왈에 대한 임대여부를 제주도와 사전협의했을 가능성도 있다"고 주장했다.이들 단체는 "곶자왈국립공원 추진 등 말로는 곶자왈 보전의지를 강조해 온 제주도가 뒤로는 도유지 곶자왈에 대한 개발사업을 묵인한 것이 아니냐는 의심을 살만하다"며 "제주도가 도유지 곶자왈에 대한 개발사업을 묵인했다면 도민 기만이며 몰랐다면 곶자왈 보전정책에 큰 허점"이라고 규정했다.특히 원희룡 제주도지사의 정책철학에 대해 의구심을 제기했다.원 지사는 지난달 26일 간담회에서 '현 도정은 보전에 중심을 두고 있지만 개발과 환경보전의 충돌 과정에서 적절히 이루도록 하기에는 어려운 점이 있고, 행정업무 처리에 현행 법규를 준수해 처리하고 있기 때문에 재산권을 제약하고 스톱시킬 수는 없다'고 주장했는데, 환경단체들은 "정작 도유지 곶자왈 마저 개발 사업에 내놓는다면 이는 거짓된 해명에 불과하다"고 꼬집었다.또 원 지사가 취임사에서 '삶의 근본이자 꿈이 시작된 이 땅, 어머니의 땅을 무분별한 개발로부터 지켜내겠다'고 다짐했던 것을 언급하며 "그 다짐을 도민의 땅인 도유지 곶자왈을 지키는 데서부터 실천해야 한다. 더 이상 곶자왈은 개발의 재물이 되어서는 안 된다"고 강조했다.그러면서 이들 단체는 "제주도는 제주 사파리월드 조성사업 예정부지의 도유지 곶자왈 임대 불허방침을 분명히 밝혀야 할 것"이라고 촉구했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 크루즈 관광 성장 위한 토론회 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-04 10:06 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 크루즈 관광 성장 위한 토론회 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 크루즈 관광 성장 위한 토론회 지화 승인 2017.02.08 10:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도는 지역상권 연계 경제활성화 대책 수립 이후, 크루즈 관광 질적 성장을 위한 협의회를 구성하고 오는 9일 오전 10시 제주도청 1청사 4층 한라홀에서 전문가, 지역상권, 협의체 등과 끝장토론회를 개최한다. 지난해 제주에는 크루즈 관광객 120만명 유치로 쇼핑금액, 항만수입 등 총 6,502억 원의 지역경제 파급효과를 달성한 것으로 분석됐으나, 실제 지역 상권에는 큰 도움이 되지 않는다는 여론이 조성되었었다. 이에 지역상권 연계 경제활성화 대책의 일환으로 관련 분야의 목소리와 다양한 의견을 수렴해 정책에 반영하고자 15명으로 구성된 크루즈 관광의 질적 성장 협의회를 운영하게 됐다. 학계, 전문가, 지역 상권 대표로 구성된 협의회에서는 앞으로 크루즈관광 수용태세 강화, 크루즈 관광상품 개발 및 실천 방안 등 지역경제 활성화를 위한 기관별 역할을 분담하고 대책을 마련할 전망이다. 특히 크루즈 관광객 증가로 인한 경제적 혜택이 실질적으로 도민들에게 전달될 수 있도록 관련 프로그램을 개발하고 운영함으로써 크루즈산업 육성과 저가 관광개선 등을 도모할 계획이다. 이번 첫 협의회에서는 크루즈관광객 지역상권 유치방안과 추후 강정항으로 입항하게 될 크루즈관광객 대상 산남지역 내 프로그램 운영방안 등에 대한 심도있는 논의가 진행될 계획이다. 도는 이번 회의를 통해 제주 크루즈 관광에 대한 각계각층의 현안분석과 지역경제 활성화를 위한 대안들이 수렴될 것으로 기대하고 있다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1옥천군, 제35회 지용제 둘째 날 ‘제19회 군민 한마음 노래자랑 &amp;향수 콘서트’ 개최 2[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 3나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 4옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 5[인터뷰] 『아프지 않은 사랑이 어디 있으랴』 첫 산문집 출간한 이은봉 시인! 6단양 대가초,“별이 빛나는 사제동행 힐링캠프”실시 7[영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 8‘천안흥타령춤축제 2022’ 86만 명 시민 열광 속 폐막 9옥천군, 제35회 지용제 셋째 날 풍경! 10[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 최신기사 볼거리 풍성한 2022제천한방바이오박람회 민선8기 제천시장 공약 평가 자문위원회 개최 하동군 옥종면민의 날 및 면민체육대회 4년만에 성료 하동읍민 화합 한마당 잔치 성황리 개최 황갑선 회장,하동군장학재단, 9년째 통큰 장학기금 기탁 하동군, 스피드 행복민원 서비스 시행 정성이 피어나는 생명의 꽃 제40회 금산인삼축제 개막! 오늘의 동영상 [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 [영상 / 포토] 옥천군, 제35회 지용제 ‘시(詩)끌북적 문학축제’의 마지막 날 옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 순창군, 순창장류축제 유튜브크리에이터들과 함께 유튜브로 홍보 강화 [영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
-  </si>
-  <si>
-    <t>오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 미디어 오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.02.07 15:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × KBS 유용두.유승용.양경배 기자 '취재부문' MBC 권혁태.김승범 기자 '기획취재' 부문 수상 제주도기자협회(회장 김대휘)는 7일 2016년도 제주도기자상 수상작과 수상자를 선정, 발표했다.취재 부문에서는 14편의 출품작 가운데 KBS제주방송 유용두·유승용·양경배 기자의 ‘오라관광단지 연속보도’가 수상작으로 결정됐다. 이 보도는 제주지역 역대 최대인 사업비 6조원 규모로 추진되고 있는 오라관광단지 개발 사업에 따른 각종 문제 등을 지속적으로 집요하게 파고들어 공론화함으로써 정책의 방향타를 제시하는 등 언론 본연의 역할인 검증과 감시 기능에 충실했다는 평가를 받았다.기획취재 부문에서는 6편의 출품작 중 제주mbc 권혁태·김승범기자의 ‘도시, 기억 너머’가 수상작으로 선정됐다. 이 기획은 제주 원도심 재생사업의 방향을 원도심이 간직한 역사성, 확장성, 문화적 다양성을 중심으로 해외 선진지의 비교 사례를 통해 다각도로 정감 있게 접근함으로써 잔잔한 공감대를 이끌어냈다는 평가를 받았다.한편 편집 부문에서는 제민일보 이소진 기자의 ‘week &amp; 팡-제주의 과거·현재·미래 만나는 원도심’, 보도사진영상 부문에서는 한라일보 강경민 기자의 ‘국정농단 분노의 촛불 행렬’이 수상했다.시상식은 오는 16일 오후 7시 메종글래드 제주호텔 2층 크리스탈룸에서 열리는 ‘2017년 제주도기자협회 신년하례회'에서 이뤄진다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ 기자명 고병수 기자 입력 2017.02.06 11:30 수정 2017.02.06 11:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제회의 시설용량부족 대형, 초대형 회의 유치는 불능 한계 봉착 ▲ ICC제주 국제회의 개최 모습. (제주=국제뉴스) 고병수 기자 = 제주도에 고부가가치 국제회의 등 MICE 관광객이 총 43건에 3만1152명이 제주를 방문한다. 는 작년 300명이상 국제회의 참가자수 42건에 2만6557명으로 회의 관광객이 17.3% 늘어난 수치다.6일 제주특별자치도와 국제회의유치 전담조직인 제주컨벤션뷰로에 따르면 2017년 국제회의에 참가하는 고부가가치의 MICE 관광객 입도 전망이 밝다고 밝혔다.올해 3월 '국제키와니스 아태대회' 2천명을 시작으로 아시아인프라투자은행(AIIB)연차총회 2천명, 'IEEE 의학생명공학회 컨퍼런스 3천명 등 2천명이상 대형회의와 "2017 대한항공공학회 국제학술대회(1,300명)' 등 300명이상 규모의 국제회의가 참가인원 31,152명에 총43건 개최 예정이다.MICE 최대 국제기구 ICCA(세계국제회의협회)의 보고서에 따르면 국제회의 개최일수는 감소하고 참가자의 소비가 일반관광객보다 높아 국제회의 유치 및 참가자 증대가 그 지역 MICE산업 발전과 지역경제 활성화를 위한 중요한 요소로 부상하고 있다는 것.이에 따라 제주도와 제주컨벤션뷰로는 고부가 국제회의 유치 증대를 위해 학․협회 대상 MICE설명회와 MICE산업 대전개최 등의 다양한 MICE마케팅 활동을 지속 추진할 계획이다.또한 제주특별자치도는 MICE 행사 유치뿐만이 아니라 MICE 개최지 경쟁력도 강화시켜 나갈 계획이다.이를 위해 "2017년 국내․국제회의 개최 인센티브지원 사업"으로 개최지원 예산을 작년 3.5억원에서 4.2억원으로 20% 증액해 고부가 국제회의 개최증대에 나서고 있다. 특히 제주에 온 MICE 참가자들이 관광에 나서도록 행사장 내에 '제주 홍보관'을 운영해 관광정보를 제공하고 있고 교통·관광카드 형식의 MICE 카드도 배포해 주변 관광지나 음식점 등에 들러 제주문화를 체험하도록 유도하고 있다.이승찬 관광국장은 "올해 도내 MICE업체와 공동으로 국제MICE전문 박람회 및 MICE로드쇼 등에 참가할 예정"이라며 "이런 과정을 통해 국제MICE 네트워크를 구축시켜 지역 MICE 업체들의 경쟁력을 강화시켜 나갈 계획"이라고 말했다.한편 ICC제주의 최대 수용시설이 4300명으로 이를 넘는 대형 및 초대형 국제회의 등은 유치할 수 없다는 시설의 한계가 분명히 있다는 것. 이에 대형 초대형 국제회의는 육지부의 대형 컨벤션이나 해외로 발길을 돌릴 수밖에 없다.이에 MICE산업 유치를 위해 시설 확충 등 제주도의 중장기적인 노력이 필요하다는 지적이다.관계자는 "올해 안에 좋은 소식이 들릴 수이 있을 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 김성배 기자 등록 2017.02.03 11:15 호반은 제주도 중문 관광단지 내(內)에 위치한 ‘퍼시픽 랜드’(제주도 서귀포시 색달동 2950-4번지 외)를 인수하고 레저 및 관광 사업을 확대한다고 3일 밝혔다. 퍼시픽 랜드가 위치한 제주 중문 관광단지는 제주 서귀포시 일대에 조성된 종합관광휴양단지로 제주 신라호텔, 롯데호텔 등 5성급 호텔이 모여 있다. 주변에는 테디베어 뮤지엄, 초콜릿 랜드, 천제연 폭포, 중문 면세점, 여미지 식물원 등 다양한 볼거리와 체험도 가능하다. 중문 해수욕장과 인접한 퍼시픽 랜드는 현재 돌고래 공연장, F&amp;B(식당, 베이커리), 요트 투어 등 마리나 시설을 운영 중이다. 호반은 중문 해수욕장과 직접 연결되는 약 5만여m²(1만 5000 여 평)의 부지에 특1급 호텔 및 빌라 등의 숙박 시설과, 복합 휴양 문화시설 등을 신축할 예정이다. 또한, 제주도 호텔 부지 중 유일하게 마리나 시설(1만여 평)을 보유하고 있어서 개발 후 중문 관광단지 내에서도 명소로 자리 잡을 것으로 보인다. 호반 관계자는 “퍼시픽 랜드는 제주도에서 입지가 뛰어난 중문 관광단지내 위치해 있다”며, “바다조망이 가능한 호텔, 빌라, 휴양문화시설 등을 신축해서 복합리조트로 개발할 예정이다”고 말했다. 김성배 기자 ksb@ &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 SPC그룹, 프랑스 몽파르나스점 오픈···현지 공략 박차 두나무-하이브 NFT JV 레벨스, 디지털 콜렉터블 플랫폼 '모먼티카' 출시한다 윤상현 한국콜마 부회장 "서울, 글로벌 뷰티 중심 도시로 만들 것" 삼성, 파운드리 승부수 던졌다···"2027년 1.4나노 양산" 네이버, 미국판 당근마켓 인수...포쉬마크는 어떤 회사? 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 삼바, 글로벌 대표 ESG 평가서 '상위 5% 기업' 인정 받아 실종아동찾기 뉴스웨이가 함께합니다. 한소희(여, 당시 만0세) 실종일자 : 1989/05/18 실종지역 : 경기도 수원시 카드뉴스+ 더보기 아는 사람이 더 무서운 '장애인 학대'···누가 어떻게 괴롭혔나 뉴스웨이TV 더보기 정진석 "MBC, 국기문란 보도 자행···언론 윤리 내팽개친 망국적 행태" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>제주도 절물자연휴양림, 겨울철 관광지로 인기 - 골프타임즈 시작페이지 즐겨찾기 추가 UPDATE : 2022.10.4 화 09:56 처음으로 로그인 회원가입 전체기사 골프종합 골프대회 스토리 영상뉴스 토너먼트 인터뷰 뉴스 탐방(골프장)·피플 피플 테마 선수정보-남자 선수정보-여자 투어일정 칼럼 골프장 펀펀 회원권 동호인탐방 레슨 1분 레슨(동영상) 전문가 레슨 달인시리즈 골프닥터 골프 심리학 주니어 골프레슨 Q&amp;A 골프룰 골프이러닝(동영상) 용품 용품업체 업체탐방 골프관련산업 일반기업 제품 리뷰 라이프 건강 여행 자동차 FOOD 레저 스타일 IT 사회 재테크, 창업 건설, 부동산 문화 문학 역사 예술 연예 문화 핫이슈 스포츠 원형연구 그림읽기 포토 포토스토리 포토-골프 포토뉴스 레이싱걸 카드뉴스 사진미학 동호인 사진첩 동영상 영상레슨 골프 예의와 룰 영상-대회 영상-일반 골프정보 골프규칙 골프용어사전 골프톡톡(룰/매너) 초보골퍼 지침서 골프명언 골프여담 유머마당 골프타임즈TV 쇼핑몰 골프클럽 골프용품 일반용품 골프투어(국내/해외) 제품 후기 공지 기사검색 트위터 페이스북 RSS 모바일웹 여백 여백 HOME 라이프 여행 제주도 절물자연휴양림, 겨울철 관광지로 인기눈길 트레킹 즐겨...한국관광100선 선정 김한솔 기자l승인2017.02.03l수정2017.02.03 03:21 트위터 페이스북 크게 작게 메일보내기 인쇄하기 크게 작게 메일 인쇄 신고 ▲ 겨울철 관광지로 인기 있는 제주도 절물자연휴양림 [골프타임즈=김한솔 기자] 제주도 절물자연휴양림이 겨울철 관광지로 각광을 받고 있다. 절물자연휴양림 무장애 길(5개 코스 7km)은 눈 덮인 삼나무 숲이 이국적이며 독특한 겨울 숲 정취를 감상하기 위해 많은 관광객들이 찾고 있다. 장생의 숲길( 11.1km), 숫모르편백숲길(8km)은 평탄한 지형으로 눈길 트레킹을 즐기려는 이용객들의 추운 겨울에도 끊임없이 찾고 있다. 절물자연휴양림은 지난해 입장객이 754천명을 돌파하며 한국관광의 별로 선정되었다. 한국관광100선으로 선정되면서 전국 최고의 산림휴양관광지의 명성을 얻었다. 겨울철 시설물 동파방지 및 미끄럼 방지 시설 설치와 평상, 의자 등 이용객 안전관리를 위해 편의시설도 정비했다. 김한솔 기자｜master@thegolftimes.co.kr &lt; 저작권자 © 골프타임즈 무단전재 및 재배포금지 &gt; 메일보내기 인쇄하기 트윗하기 관련기사 [여행] 한국관광 100선 ‘자연의 아름다움에 미치다’ [문학] 여행 작가 패트리샤 슐츠와의 만남 ‘여행자들의 길라잡이 역할’ 천년고도의 숨결 ‘경주여행’ 느림의 미학 자전거로 탐(耽)하다 [EPGA] 두바이클래식, 중동에서도 흔들리는 타이거 우즈 ‘위태롭다’ 전인지ㆍ박성현, LG전자와 후원 협약 ‘잠재력 인정’ 인기기사 [KPGA] 코리안투어 문경준, 태풍 복구 성금 기부박상현, 최경주 인비테이셔널 첫날 공동 2위… 장희민 1타차 선두[최재인의 골프 칼럼] “사장님~ 나이스 샷!”(20)[KLPGA 투어] 12월 대만여자오픈, 코로나19 여파로 취소하나금융 챔피언십 첫날 6언더파 홍정민 단독 선두...“시즌 2승 도전” [이정인의 마음밭 꽃씨 하나 22회] 그럴 수도 있지 뭐 포토뉴스 [포토-하나금융 대회] 동료들로부터 우승 축하 물세례를 받는 김수지 [포토-하나금융 대회] 동료들로부터 우승... [포토-하나금융 대회] 홍정민과 김수지의 6번홀 세컨샷 [포토-하나금융 대회] 홍정민과 김수지의... [포토-최경주 대회] 아내에게 우승 축하 키스를 받는 이형준 [포토-최경주 대회] 아내에게 우승 축하... [포토-최경주 대회] 그린을 향해 세컨샷을 하는 강경남ㆍ이동민ㆍ김동민 [포토-최경주 대회] 그린을 향해 세컨샷... 여백 여백 여백 여백 여백 레이싱걸 핫포토 레이싱모델 김세라, 2021시즌 일정 마쳐...“승부 세계를 함께 해 가슴 벅차” [2016서울모터쇼] 모터사이클과 바이크걸, 관람객의 눈을 홀리다 레이싱 모델 구지성, 낮과 밤 다른 이중매력 발산... 아우라 짱 [포토-레이싱걸] [2015서울모토쇼] 레이싱모델 임민영 ‘시선을 유혹하는 몸짓’ [포토-레이싱걸] [2015서울모토쇼] 레이싱모델 한채이 ‘볼륨 있는 몸매’ 여백 사진미학 누드 행운의 홀인원이라도 했나 앗 따거~ 우렁각시 곡선의 대결 포즈 ‘어드레스’ 여백 여백 골프피플 [KPGA] 한장상 인비테이셔널 “생전에 내 이름으로 대회를...고맙고 함께 할 수 있어 기쁘다” 급성 골수성 백혈병 극복 정희도, 아시아드 부산오픈 출전 “후회 없는 경기를 펼치고 싶다” 우리금융 챔피언십 출전 임성재...“마스터즈 우승이 꿈...‘그린재킷‘ 입어보고 싶다“ K-10클럽 가입한 최가람, “최다 출전 기록 세울 때까지 정규투어 뛸래요” KLPGA 박민지 4관왕, “매년 1승도 잘했는데 1승 이상을 해 행복해요” 여백 동영상 [영상] PO 2차 BMW 챔피언십 FR 짜릿한 20m 버디 퍼트로 우승한 존 람 [영상] PO 2차 BMW 챔피언십 FR 연장 이끌어낸 더스틴 존슨의 13m 버디 퍼트 PGA 투어 윈덤 챔피언십 3라운드 12번 홀, 아쉬워하는 김시우 PGA 투어 윈덤 챔피언십 3라운드, 홀인원 후 방긋 웃는 김시우 [영상-원포인트레슨] 이수민의 로브샷...어렵지 않다 여백 여백 문화 핫이슈 '머니게임' 육지담 해명과 달라...이루리가 폭로한 내용은? '그것이 알고싶다' 김원장의 정체, 유령 작사가 있었다? [궁금한 이야기Y] '소금물 관장'...유명 요리가 강 원장의 정체는? "오히려 괴롭힘 당해"...박혜수, 피범벅 폭행 루머 입 열었다 액터빌리지 아역 배우 황유이, NGO 희망친구 기아대책 모델 발탁 여백 신문사소개ㆍ골프장TF전략사업ㆍ기사제보ㆍ광고문의ㆍ개인정보취급방침ㆍ청소년보호정책ㆍ이메일무단수집거부 서울특별시 중구 충무로2가 50-5 태호빌딩 505호  |  발행·편집인 : 문정호  |  청소년보호책임자 : 문정호  |  전화 : 02-2277-7371  |  팩스 : 02-2277-1480  |  이메일 : master@thegolftimes.co.kr 제호명 : 골프타임즈  |  문광부등록번호: 서울 아 02033  |  사업자등록번호 : 202-16-92335  |  통신판매업사업자번호 : 제2012-서울중구-0827호  |  출원번호 : 40-2012-0016887 골프타임즈는 상표법에 의거하여 특허청에 상표(국,영문)등록이 되어있습니다.  |  골프타임즈의 모든 콘텐츠는 저작권법 보호를 받으며 무단복제 및 복사 배포를 금합니다. Copyright © 2022 골프타임즈. All rights reserved.</t>
-  </si>
-  <si>
-    <t>호반건설주택, 제주도 `퍼시픽 랜드` 인수…레저·관광사업 확대 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 호반건설주택, 제주도 '퍼시픽 랜드' 인수…레저·관광사업 확대 조성신 기자 입력 : 2017.02.03 09:48:10 호반건설주택이 제주도에서 레저·관광사업을 확대한다. 호반건설주택은 제주도 내 인기 관광지인 중문 관광단지 내에 있는 '퍼시픽 랜드'(제주도 서귀포시 색달동 2950-4번지 외)를 인수했다고 3일 밝혔다. 현재 퍼시픽랜드 돌고래 공연장, 식음료(F&amp;B) 매장이 운영 중이다. 특히 제주도 호텔부지 중 유일하게 마리나시설(1만여평)을 보유하고 있다. 호반건설주택은 중문해수욕장과 직접 연결되는 약 5만m²(1만5000여평)의 부지에 1급 호텔, 빌라, 휴양문화시설 등이 들어선 복합리조트로 개발할 예정이다. [디지털뉴스국 조성신 기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #호반건설주택#퍼시픽랜드#제주도#중문관광단지#복합리조트#호텔 오늘의 핫뉴스 '댈입 광고' 성행에 SNS '사채 늪' 빠진 1020   35분칼든 검사 조종석엔 김건희…고교생이 그린 '윤석열차'   1시간 4분돈많고 혼자사는 3040, 재테크도 달라…이곳 40%투자   16시간 27분尹 "감사원, 독립 헌법기관…대통령 언급 부적절"   1시간 2분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 '댈입 광고' 성행에 SNS '사채 늪' 빠진 1020 칼든 검사 조종석엔 김건희…고교생이 그린 '.. 돈많고 혼자사는 3040, 재테크도 달라…이곳 4.. 합참 "北 탄도미사일 4500㎞ 비행"…추가도발 .. 尹 "감사원, 독립 헌법기관…대통령 언급 부적.. 인기뉴스 종합 연예 스포츠 1DJ 고향 신안군에 `윤석열 대교` 짓는다…국민통합 상징.. 230억 이상 자산가들, 年4% 국채 폭풍매수…한달간 1000.. 3돈많고 혼자 사는 3040, 재테크도 남달랐다…주식 펀드.. 4"미 해군, 일본 지침 바뀌었나"…군 뉴스에서 `확` 달라.. 5[속보] 네이버, 북미 1위 패션 C2C플랫폼 인수 1권은비, 비키니 입고 글래머 몸매 인증 [똑똑SNS] 2이세영, “미쳤다” 소리 부르네…비수기 없는 비키니 .. 3최강희 "금주·금연 다 실패" 힘겨웠던 근황 4원민주 치어리더, 승요의 우아한 자태 [똑똑SNS] 5[MK이슈]YG, 공식입장으로 제니-뷔 열애 사실상 인정? 1인도네시아 프로축구 경기 도중 관중 충돌로 120명 이상.. 2치어리더 신세희 `마스크 벗고 반가운 얼굴` [MK화보] 3안현수 코치, 중국쇼트트랙 새 출발 공개 응원 4명장도 부활 못 시키나…위기의 이종현, 신인에게도 밀.. 5산둥 “손준호 중국 자랑거리…월드컵 참가 돕겠다” 포토 1/4 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 호반건설주택, 제주도 `퍼시픽 랜드` 인수…레저·관광사업 확대 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
-  </si>
-  <si>
-    <t>제주도 “중국인 관광객” 10명 종적 감춰 &lt; 사건.사고 &lt; 사회 &lt; 시사&amp;이슈 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-04 10:12 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 “중국인 관광객” 10명 종적 감춰 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 시사&amp;이슈 사회 사건.사고 제주도 “중국인 관광객” 10명 종적 감춰 기자명 박상민 기자 입력 2017.02.01 18:47 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 무사증 제도 개선 필요… [시사포커스/박상민기자] 제주도로 관광 온 중국인 10명이 사라져 관계 기관이 수사 중이다. 1일 제주출입국관리사무소 등에 따르면 지난달 24일 크루즈 타고 제주도로 온 중국인 관광객 10명이 여행 중 사라져 이들 행방을 뒤쫓는 중이다. 이 중국인 10명은 남성 3명과 여성 7명으로 구성되어 있으며, 제주도에 도착한 당일인 지난달 24일부터 사라지기 시작했다. 먼저 6명은 제주 시내에 위치한 한 면세점에서 사라지고 2명은 민속자연사박물관, 남은 2명은 크루즈터미널 이후로 종적을 감췄다. 지난 2006년부터 제주도는 무사증 제도를 통해 192개국의 외국인들이 비자 없이 30일 동안 지낼 수 있도록 했다. 이에 제주도는 관광객이 크게 늘어났지만 그만큼 밀입국 외국인도 큰 폭으로 높아졌고 무사증 제도는 점차 밀입국의 통로로 악용되어가고 있는 실정이다. 한편 출입국관리사무소는 현재 이들의 행방을 뒤쫓고 있다. 박상민 기자 sisafocus05@sisafocus.co.kr 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... [포토] 흥인지문 앞에서 육의전 축제 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 2 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 3 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 4 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 5 국힘 부산시당, ‘지방대학 인재육성’ 정책간담회 개최 6 [기획] 윤 대통령 발언 논란 후폭풍, ‘힘 대결’로 가나 7 킬리안 음바페, PSG 수뇌부 래시포드 포함 선수 4명 영입리스트 건네 8 [포토] 김재욱, 분위기 남신 비주얼 9 [포토]서울 서초구 노인의날 행사, 어르신들 눈과 귀가 즐거웠다 10 군위군 대구 편입 법률안, 11월 국회 처리 유력 1 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 2 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 3 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 4 [포토] 흥인지문 앞에서 육의전 축제 5 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 6 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 7 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 8 [기획] 정부, “내년 화이트바이오 ‘육성’에서 ‘활성화’로 전략 수정” 9 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 10 [포토] 남산골 한옥마을에서 만나는 팔도음식 1 문재인 집권 기간, 마약밀수 1741%‧마약사범 595% 증가 2 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 3 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 4 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 윤 대통령 지지율, 20·30대에서 하락…부정평가 상승 7 [포토] 흥인지문 앞에서 육의전 축제 8 [동향] 갈수록 어려워지는 플랫폼 기업 엑시트 9 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 10 지지기반 흔들리며 다시 꺾인 윤 대통령과 여당 지지율 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 마마무 화사, 신곡 '일낼라'…본투비 섹시 아우라 '치명美' [시사포커스 / 이청원 기자] 마마무 화사가 오는 11일 공개되는 완전체 신곡 '일낼라' 개인 티저 마지막 주자로 나섰다.3일 소속사 측은 마마무(솔라·문별·휘인·화사) 공식 SN... 고우리, 5살 연상 사업가와 오늘(3일) 결혼 마마무 휘인, 신곡 '일낼라' 개인 티저…'시크+도도' ‘MLB’ 애틀랜타, 뉴욕 메츠전 3연전 스윕으로 동부지구 우승 –1승 [시사포커스 / 이근우 기자] 애틀랜타 브레이브스가 내셔널리그 동부지구 우승을 눈앞에 뒀다.애틀랜타는 3일(한국시간) 미국 조지아주 애틀랜타의 트루이스트 파크에서 열린 2022시즌... 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 킬리안 음바페, PSG 수뇌부 래시포드 포함 선수 4명 영입리스트 건네 건강 여행 인터뷰 일몰이 아름다운 영흥도 [시사포커스 / 박기성 기자] 인천 옹진군 서쪽 끝 영흥도에 해가 진다. 지난 한해를 돌이켜 보며 연초에 마음먹고 이루고자 했던 일들을 얼마만큼이나 실행했는지? 또한 아쉬움은 없었... 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
+    <t>김정남 암살용의자 흐엉 제주도 관광 추정 사진 페이스북에서 확인모 가수 운영 카페도 들러 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" ‘솔로 데뷔 D-1’ 백호, 미니 1집 ‘Absolute Zero’ 기대 포인트는? 6년만에 자카르타 찾은 해군 순항훈련전단…인니서 위용과시 한미약품-한미정밀화학, 인적자원개발 우수기관 2년연속 인증 [포토] 유인나, '예쁘다~예뻐~' [포토] 김혜준-정해인, '다정한 손인사~' (27th BIFF) [온에어] 정오의 머니머니 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,183.05 (49.79 2.23%) 코스닥 670.42 (28.07 4.02%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ `김정남 암살용의자` 흐엉, 제주도 관광 추정 사진 페이스북에서 확인..모 가수 운영 카페도 들러 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2017-02-24 15:03 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 `김정남 암살용의자` 흐엉, 제주도 관광 추정 사진 페이스북에서 확인..모 가수 운영 카페도 들러 SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 김정남 암살용의자인 베트남 국적의 여성 도안 티 흐엉(29)이 지난해 제주에 왔던 것으로 확인됐다.흐엉은 지난해 11월 2일 제주에 입국해 사흘간 머물다 5일 중국 광저우로 출국했다. 당초 같은달 9일까지 제주에 머물 계획이었으나 일정을 나흘 앞당겨 돌아갔다.그는 입국 당시 제주시 도심의 한 오피스텔을 체류 예정지로 기재했으나 해당 오피스텔에는 방문하지 않은 것으로 확인됐다.이 오피스텔에는 2015년부터 40대 후반 여성이 가족과 함께 살고 있으며, 이들은 흐엉과 전혀 관계없는 사이인 것으로 알려졌다.흐엉이 왜 이 주소를 체류 예정지로 적었는지와 제주 방문지 등은 아직 확인되지 않았다.다만 흐엉의 페이스북 계정으로 알려진 `Linh Ngoc Vu`에 오른 사진으로 그의 제주 체류 기간 동선을 유추할 수 있다.`I love Jeju`라는 문구와 함께 게시된 흐엉의 제주 사진은 8∼9장으로 추정된다. 이들 사진은 흐엉이 중국으로 돌아간 사흘 뒤 페이스북에 올라왔다.흐엉은 작년 11월 2일 제주공항에 무사증으로 입국한 후 용두암과 용담 해안도로, 애월 해안가, 표선 해비치해변을 관광한 것으로 보인다. 표선 해비치해변에서는 숙소에서 찍은 것으로 보이는 사진도 있어 1박을 했을 가능성이 크다.제주에 내린 흐엉이 맨 먼저 들렸을 가능성이 큰 곳은 제주공항에서 1㎞ 내외 거리에 있는 용두암 주변이다.한류 연예인을 좋아하는 것으로 알려진 흐엉은 제주시 애월읍에서 한국 가수가 운영에 관여하는 모 카페에 들린 것으로도 보인다.흐엉은 이 카페 건물을 배경으로 사진을 찍는 관광객들의 모습을 사진으로 찍어 올렸다. 주변 해안가의 모습도 사진으로 담았다.이어 올라온 사진들은 표선 해비치해변의 풍경들로, 총 4∼5장이 있다.이들 사진은 표선 해비치해변을 바로 볼 수 있는 한 숙소에서 찍은 사진들로 보인다.2∼3층 숙소 앞 베란다에서 찍은 셀카와 함께 이 베란다에서 보이는 표선해비치해변의 풍경을 담은 사진 3장이다.표선 해비치해변에서 묵은 숙소는 8만∼15만원의 비교적 저렴한 곳이다.표선은 유명 관광지인 성산일출봉과 섭지코지가 가까이 있어 흐엉이 이들 관광지도 갔을 것이란 추측이 가능하다.페이스북 계정에 올린 사진으로만 볼 때는 흐엉은 제주에서 여행만 한 것으로 보인다.법무부 제주출입국관리사무소 관계자는 "흐엉은 제주 체류 당시 다른 지방으로 무단 이탈을 하는 등 불법적 행동을 하지 않아 수사 대상은 아니었다"며 "그러나 김정남 암살용의자로 오르면서 제주 체류 행적에 대해 조사하고 있다"고 말했다. 김정남 암살용의자 사진 제주 표선 와우넷 오늘장전략 한국경제TV 디지털뉴스부 조시형 기자 jsh1990@wowtv.co.kr 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 양봉삼형제 김형철대표 와우넷파트너교육 윤성김병전 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2017-02-24 15:03 `김정남 암살용의자` 흐엉, 제주도 관광 추정 사진 페이스북에서 확인..모 가수 운영 카페도 들러 김정남 암살용의자인 베트남 국적의 여성 도안 티 흐엉(29)이 지난해 제주에 왔던 것으로 확인됐다.흐엉은 지난해 11월 2일 제주에 입국해 사흘간 머물다 5일 중국 광저우로 출국했다. 당초 같은달 9일까지 제주에 머물 계획이었으나 일정을 나흘 앞당겨 돌아갔다.그는 입국 당시 제주시 도심의 한 오피스텔을 체류 예정지로 기재했으나 해당 오피스텔에는 방문하지 않은 것으로 확인됐다.이 오피스텔에는 2015년부터 40대 후반 여성이 가족과 함께 살고 있으며, 이들은 흐엉과 전혀 관계없는 사이인 것으로 알려졌다.흐엉이 왜 이 주소를 체류 예정지로 적었는지와 제주 방문지 등은 아직 확인되지 않았다.다만 흐엉의 페이스북 계정으로 알려진 `Linh Ngoc Vu`에 오른 사진으로 그의 제주 체류 기간 동선을 유추할 수 있다.`I love Jeju`라는 문구와 함께 게시된 흐엉의 제주 사진은 8∼9장으로 추정된다. 이들 사진은 흐엉이 중국으로 돌아간 사흘 뒤 페이스북에 올라왔다.흐엉은 작년 11월 2일 제주공항에 무사증으로 입국한 후 용두암과 용담 해안도로, 애월 해안가, 표선 해비치해변을 관광한 것으로 보인다. 표선 해비치해변에서는 숙소에서 찍은 것으로 보이는 사진도 있어 1박을 했을 가능성이 크다.제주에 내린 흐엉이 맨 먼저 들렸을 가능성이 큰 곳은 제주공항에서 1㎞ 내외 거리에 있는 용두암 주변이다.한류 연예인을 좋아하는 것으로 알려진 흐엉은 제주시 애월읍에서 한국 가수가 운영에 관여하는 모 카페에 들린 것으로도 보인다.흐엉은 이 카페 건물을 배경으로 사진을 찍는 관광객들의 모습을 사진으로 찍어 올렸다. 주변 해안가의 모습도 사진으로 담았다.이어 올라온 사진들은 표선 해비치해변의 풍경들로, 총 4∼5장이 있다.이들 사진은 표선 해비치해변을 바로 볼 수 있는 한 숙소에서 찍은 사진들로 보인다.2∼3층 숙소 앞 베란다에서 찍은 셀카와 함께 이 베란다에서 보이는 표선해비치해변의 풍경을 담은 사진 3장이다.표선 해비치해변에서 묵은 숙소는 8만∼15만원의 비교적 저렴한 곳이다.표선은 유명 관광지인 성산일출봉과 섭지코지가 가까이 있어 흐엉이 이들 관광지도 갔을 것이란 추측이 가능하다.페이스북 계정에 올린 사진으로만 볼 때는 흐엉은 제주에서 여행만 한 것으로 보인다.법무부 제주출입국관리사무소 관계자는 "흐엉은 제주 체류 당시 다른 지방으로 무단 이탈을 하는 등 불법적 행동을 하지 않아 수사 대상은 아니었다"며 "그러나 김정남 암살용의자로 오르면서 제주 체류 행적에 대해 조사하고 있다"고 말했다. 한국경제TV 디지털뉴스부 조시형 기자 jsh1990@wowtv.co.kr</t>
+  </si>
+  <si>
+    <t>제주도 추천 여행코스는? 섭지코지, 성산일출봉 관광과 맛집 탐방 &lt; 웰빙 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 웰빙 제주도 추천 여행코스는? 섭지코지, 성산일출봉 관광과 맛집 탐방 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.02.24 13:58 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 겨울철 강추위가 사그라든 요즘, 주말을 이용하여 제주도로 휴식을 즐기러 여행을 떠나는 사람들이 늘어나고 있다. 그 중 서귀포시 부근에 유명한 관광지는 물론 다양한 볼거리와 맛집이 즐비하고 있어 여행 필수 지역으로 자리잡고 있다.제주도 서귀포시에 위치한 성산일출봉과 섭지코지는 화산 폭발로 인하여 생긴 화산체의 모습을 그대로 잘 간직하고 있는 곳으로, 제주도로 여행을 떠나는 이들이 주로 들르는 인기 관광지이다. 그런 만큼 제주도 서귀포에는 맛집도 산재하고 있는데, 그중에서도 ‘제주마루’는 주변 관광객들이 많이 찾는 맛집으로 꼽힌다.제주 성산읍 섭지코지 맛집 ‘제주마루’는 자연산 활어회를 비롯하여 갈치조림, 생선구이, 해물뚝배기 등 다양한 해산물 요리를 맛볼 수 있는 음식점이다. 또한 해산물 요리 외에도 제주도 특산물인 흑돼지로 만든 제육볶음과 같은 요리도 맛볼 수 있어, 해산물을 좋아하지 않는 사람도 부담 없이 즐길 수 있다.모듬회 주문 시에는 다양한 반찬들을 푸짐하게 맛볼 수 있다. 전복회, 소라회, 멍게, 해물뚝배기, 우럭튀김, 옥돔구이, 성게미역국 등 다양한 반찬들이 제공되며, 여기에 매운탕까지 제공되어 끝맛을 얼큰하고 시원하게 마무리 할 수 있다.제주도 성산읍 성산일출봉 맛집 제주마루의 관계자는 “제철 활어회와 각종 다양한 해산물을 맛보기 위해서는 겨울철인 지금이 적기”라며 “제주도 섭지코지, 성산일출봉 맛집을 찾아 방문하는 고객들을 위하여 늘 신선한 해산물과 부 재료만을 다루고 있다. 제주 특산물인 흑돼지도 다루고 있으니 특별한 맛을 기대하실 수 있을 것”이라고 전해왔다.‘제주마루’는 제주 서귀포시 성산읍신양로 116에 위치하고 있다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제1차 이사회 및 대의원총회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 제1차 이사회 및 대의원총회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 제1차 이사회 및 대의원총회 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2017.02.23 17:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)은 24일 오전 10시30분 뉴크라운호텔 2층 회의실에서 2017년도 제1차 이사회 및 대의원 총회를 개최한다. 이날 이사회 및 대의원총회에서는 주요업무 보고와 함께 정관변경 및 예산 결산의 건에 대한 심의.의결이 이뤄질 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 장애물 없는 관광환경 조성 5개년 계획 '시동' | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 장애물 없는 관광환경 조성 5개년 계획 '시동' 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 장애물 없는 관광환경 조성 5개년 계획 '시동' 송고시간2017-02-21 11:06 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 '무장애 인증제' 도입해 관광진흥기금 인센티브 지원 (제주=연합뉴스) 김호천 기자 = 장애인과 노인, 임산부, 어린이에게 장애물 없는 관광 제주 만들기가 추진된다. 제주도는 올해부터 2021년까지 5년 동안 추진할 분야별 관광 약자를 위한 관광환경 조성 계획을 수립, 추진한다고 21일 밝혔다. 휠체어 타고 떠나는 여행 (서울=연합뉴스) 홍해인 기자 = 2014년 6월 서울 동숭동 마로니에공원에서 열린 '2기 초록여행 하모니 원정대' 출정식에 참가한 장애 학생. 장애·비장애 대학생이 함께 참가하는 원정대는 대한민국 유수관광지를 돌며 장애인 여행문화확산과 이동권 개선을 위해 전국 주요 시설의 물리적·제도적 장벽을 허무는 베리어 프리(Barrier Free) 평가 및 개선 제안에 참가했다. 2014.6.26 [연합뉴스 자료사진] 이 사업은 공영관광지, 사설 관광지, 숙박업, 음식업, 전세버스, 렌터카, 휠체어 무료 대여 등 주요 접점별로 무장애 환경을 조성하는 것이다. 광고 공영관광지 부문에서는 2015년 한국관광공사가 주관한 장애물 없는 관광환경 실태조사를 기초 자료로 활용해 관광 약자의 수요가 많은 관광지와 유료 관광지를 먼저 정비한다. 이 부분에만 전체 예산 55억1천500만원의 34.1%인 18억8천만원을 연차별로 투입한다. 사설 관광지는 우수관광사업체를 대상으로 화장실과 주 출입로 정비를 우선 지원한다. 다만 해당 업체가 소요 경비의 일정 부분을 부담해야 한다. 음식점은 관광식당, 모범음식점 등을 대상으로 공모해 희망업체에 지원한다. 숙박업 중에서는 일반숙박업을 중심으로 정비를 추진하고, 관광숙박업은 장애인, 노인, 임산부 등의 편의 증진 보장에 관한 법률에 따라 관광 약자 전용 객실과 시설을 운영하도록 한다. 호텔업 등급 현장 평가 기준에 관광 약자를 위한 시설기준, 이동로 확보 등의 평가지침을 강화해 운용할 계획이다. 관광 약자에게 가장 중요한 이동수단과 관련 리프트 장치가 있는 전세버스를 구매를 지원한다. 구매 보조율은 90%, 최대 지원 금액은 2억원이다. 렌터카는 리프트 승합차 구매를 우선 지원한다. 무장애 관광환경 시설과 설비를 적극적으로 갖춘 시설에 대해서는 3년간 인증하고, 관광진흥기금을 우선해 융자하거나 보조하는 인센티브를 제공한다. 이 밖에 휠체어 무료 대여 사업, 관광 약자 안내·홍보·서비스 교육도 시행한다. 이승찬 제주도 관광국장은 "관광 약자의 관광 향유권 확대는 물론 고령사회에 대비한 실버관광 기반을 구축하기 위해서도 장애물 없는 관광환경을 조성해야 한다"고 말했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/02/21 11:06 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도감사위원회 '오라관광단지 특혜없었다' 결론 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도감사위원회 '오라관광단지 특혜없었다' 결론 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도감사위원회 '오라관광단지 특혜없었다' 결론 제주CBS 이인 기자 메일보내기 2017-02-21 11:39 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 환경영향평가심의위 심의결과는 조정요청 대상 아냐…시민단체 반발 불가피 제주오라관광단지 조감도. 제주도감사위원회가 오라관광단지 개발사업 과정에서 절차적 하자나 불법은 없었다는 조사결과를 내놨다. 특혜의혹을 밝혀 달라며 감사를 요청한 시민단체의 반발이 예상된다. 제주도감사위원회는 21일 오라관광단지 개발사업 조사결과 위법 사항은 없었다고 밝혔다. 이는 도내 19개 단체로 구성된 제주시민사회단체 연대회의가 오라단지 특혜의혹을 밝혀달라며 지난 1월 초 감사요청한데 따라 50여일 간의 조사끝에 문제없다고 결론낸 것이다. 도감사위는 우선 '조정요청 절차없이 환경영향평가 심의결과를 번복한 과정의 절차적 하자'에 대해서는 환경영향평가심의위원회의 심의결과는 조정요청 대상이 아니다고 발표했다. 제주도 환경영향평가조례에 따라 조정요청 절차는 도의회 동의를 거쳐 최종 통보된 협의내용에 이의가 있을 때만 할 수 있는 불복절차일뿐, 환경영향평가 심의결과에 대한 불복절차가 아니라는 것이다. '환경영향평가심의위 번복결정의 월권행와 번복사유의 부적절성'에 대해서는 도의회 동의안을 제출하기 이전인 협의단계에서 사업 보완서를 심의하기 위해 위원장이 재차 회의를 소집한 뒤 이전 결정을 번복한 것은 월권행위가 아니다고 감사위원회는 밝혔다. '지하수 관정 양도.양수 행위가 제주특별법이나 하수법을 위반했다'는 의혹과 관련해 감사위원회는 사업자인 JCC(주)가 이전 사업자인 극동건설(주)의 권리·의무를 적법하게 승계받은 후 같은 취지의 사업을 진행하고 있다며 취소사유가 아니다고 결론냈다. 감사위원회는 이와 함께 '신규 편입부지의 사전입지검토 절차 누락'에 대해선 사전입지검토 기준은 필수적 절차가 아닌 임의적·선택적 절차라며 도시계획위원회의 자문을 거쳤다면 사전입지검토를 받지 않아도 위법의 문제가 발생하지 않는다고 설명했다. 그러나 시민단체 연대회의는 조사요청을 하며 환경영향평가 조례의 경우 사업자가 심의결과에 따른 협의내용의 조정요청을 하면 조정요청심의위원회가 심의를 하도록 규정하고 있는데 환경영향평가심의위원회와 제주도는 법률이 정한 절차를 위반했다고 주장했다. 또 사업자인 JCC는 이전 사업자로부터 지하수 관정 9개를 넘겨받아 생활용수를 공급한다는 계획이지만 허가 목적에 따른 개발·이용이 불가능하게 된 경우여서 지하수 허가는 취소돼야 한다고 강조했다. 이와 함께 연대회의는 오라관광단지 신규 추가부지 91만㎡에 대해 사전입지검토 절차를 누락한 채 환경영향평가 초안검토가 이뤄졌다며 특혜의혹을 주장했다. 이에 따라 도 감사위원회의 감사 결과에 대해 시민단체 연대회의의 강한 반발이 예상된다. 당장 시민단체 한 관계자는 감사위원회의 아전인수식 해석이고 제주도정의 추진의지가 반영된 감사결과라고 비판했다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 금감원 '수상한 외환거래' 이달 중 검사 마무리 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 제주CBS 이인 기자 메일 네이버 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 내나라 여행박람회 '최우수 홍보부스' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회, 내나라 여행박람회 '최우수 홍보부스' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회, 내나라 여행박람회 '최우수 홍보부스' 제주CBS 박정섭 기자 메일보내기 2017-02-20 15:53 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 (사진=제주도관광협회 제공) 제주도관광협회의 제주관광홍보관이 '최우수 홍보부스' 영예를 안았다. 제주특별자치도관광협회(회장 김영진)는 지난 16~19일 서울 코엑스에서 개최된 '2017 내나라 여행박람회'에서 '최우수 홍보부스'수상의 영광을 차지했다. 제주관광홍보관은 관람객들에게 세계자연유산 등재 10주년 기념 이미지와 다양한 제주축제 등 제주의 새로운 관광콘텐츠를 적극적으로 홍보했다.또 제주러브랜드와 서귀포잠수함, 카멜리아힐, 세계자동차박물관, 더원호텔 등 도내 다양한 업계가 참가해 관광협회와 공동 마케팅을 펼쳤다.이와 함께 천연염료를 이용한 손수건 천연염색 체험과 나만의 컵만들기 체험 프로그램도 진행됐다.온라인 제주여행 전문마켓 '탐나오' 회원가입 이벤트도 진행돼 박람회 기간 중 탐나오 홈페이지 신규 가입 회원이 600명 이상 모집되는 호응을 얻기도 했다.제주도관광협회는 '2017 SBS골프 대한민국 골프대전', '힐링페어' 등 수도권에서 개최되는 다양한 대형 박람회에 참가, 적극적인 마케팅으로 고부가가치 제주관광객 유치에 나설 예정이다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 금감원 '수상한 외환거래' 이달 중 검사 마무리 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 레저스포츠 관광객 유치 ‘시동’ &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 레저스포츠 관광객 유치 ‘시동’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도관광협회, 일본 레저스포츠 관광객 유치 ‘시동’ 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.02.14 17:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회(회장 김영진)는 지난 2월10~13일 레저·스포츠를 연계한 일본 관광객 및 동호인 유치를 위해 우호교류단체인 와카야마현 아리타시관광협회와 전략적 협력 비즈니스 마케팅을 추진했다. ⓒ제주의소리 10~13일 일본 아리타시관광협회와 협력 비즈니스 마케팅 전개제주도 관광업계가 일본 내 레저스포츠 관광객 유치를 위한 현지 비즈니스 마케팅을 전개했다.제주도와 제주도관광협회(회장 김영진)는 지난 2월10일부터 13일까지 최근 장기 침체기를 겪고 있는 일본 관광시장에 레저·스포츠를 연계한 일본 관광객 및 동호인을 대상으로 유치 활력을 불어넣기 위해 우호교류단체인 와카야마현 아리타시관광협회와 전략적 협력 비즈니스 마케팅을 추진했다.제주도관광협회는 지난 12일 아리타시 마쯔겐 아리타 구장에서 개최된 제9회 아리타시미캉카이도마라톤대회에 참가, 일본지역 고부가가치 FIT&amp;SIT 관광객 유치를 위한 맞춤형 제주관광 상품 홍보부스 운영과 함께 교류단 전원이 제주 홍보 배너를 착용해 7Km 워킹 및 현장 로드홍보를 펼쳤다.특히 대표선수로 참가한 권순희 선수는 10km 마라톤 여자부 전체 1위, 강한종 선수는 10km 마라톤 남자부 40대 3위를 기록하는 등 참가자들의 관심을 한 몸에 받으며 레저·스포츠를 연계한 제주관광의 우수성을 널리 알리는데 톡톡한 역할을 했다. 아울러 아리타시 시장을 비롯한 시의회 의장 등 주요 인사들과의 간담회를 통해 양 지역 간 마라톤 교류 활성화와 질적 성장을 위한 전략적인 협력을 추진키로 했다.또 오는 5월21일 개최되는 제22회 제주국제관광마라톤축제에 일본인 참가자 유치와 침체된 방한 시장 회복을 위한 노력을 함께 추진하기로 의견을 모았다.관광협회 관계자는 “우호교류단체와의 지속적인 스포츠 교류 확대 및 협력 비즈니스 마케팅 전개로 지역 간 관광발전과 질적 성장을 구축하는데 앞장서겠다”고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥기금 융자제도 개선…상반기 800억 지원 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 관광진흥기금 융자제도 개선…상반기 800억 지원 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 관광진흥기금 융자제도 개선…상반기 800억 지원 송고시간2017-02-13 10:29 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도는 소규모 영세 관광사업체의 관광진흥기금 혜택과 접근성·편리성을 높이기 위해 제주관광진흥기금 융자지원 제도를 개선했다고 13일 밝혔다. 제주특별자치도청 [연합뉴스TV 제공] 도는 관광사업자의 대출금 상환부담 경감을 위해 개보수자금은 현행 1년 거치 3년 상환에서 2년 거치 3년 상환으로, 경영안정자금은 현행 1년 거치 2년 상환에서 1년 거치 3년 상환으로 변경한다. 특히 지금까지는 상·하반기 연간 2차례에 걸쳐 융자 신청을 받아 지원 결정을 했으나, 3천만원 이하의 소액 경영안정자금에 대해서는 수시 접수 후 연간 4차례, 분기별로 지원을 결정해 자금을 지원받을 수 있도록 개선한다. 광고 또한, 담보력이 약해 융자실행이 어려웠던 영세 사업자를 위해 신용대출에 대한 이차보전금리를 현행 1.85％에서 2.8％로 상향 조정한다. 다만, 영세사업체의 무리한 대출실행 억제를 위해 경영안정자금 융자추천액은 매출액을 기준으로 산정할 계획이다. 도는 2017년 상반기 제주관광진흥기금 융자지원계획안을 지난 10일 심의회를 거쳐 지원 계획을 최종적으로 확정했으며, 융자지원 신청은 13일부터 28일까지 16일간 받는다. 상반기 융자지원은 관광시설 개보수자금 400억원, 관광사업체 경영안정자금 300억원, 관광시설 건설(신·증축)자금 100억원 등 총 800억원 규모다. 이와는 별도로 렌터카업체 및 관광사업체(법인) 전기자동차 구입지원에 연간 지원규모로 500억원을 별도로 배정, 전기자동차 공모 기간에 수시접수할 예정이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/02/13 10:29 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>안상수 창원시장, 제주도청서 해양관광 프로젝트 등 특강 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 안상수 창원시장, 제주도청서 해양관광 프로젝트 등 특강 등록 2017.02.10 10:06:11 작게 크게 【제주=뉴시스】강정만 기자 = 안상수 창원시장이 10일 오후 제주도청에서 제주도청 공무원을 대상으로 특강을 갖는다. 2017.02.10 &lt;뉴시스 DB&gt;. photo@newsis.com【제주=뉴시스】강정만 기자 = 제주특별자치도 공무원을 대상으로 안상수 창원시장 초청 특별강연이 10일 도청 탐라홀에서 열린다. 안 시장은 이날 기계공업의 쇠퇴, 서비스관광산업의 불모지였던 창원시가 안 시장의 취임초 '도약의 새시대 큰 창원'이라는 슬로건을 내걸고 첨단산업과 관광산업 추진, 문화예술특별시조성, 창원광역시 승격추진에 매진하고 있는 사례들을 소개한다. 또 관광산업 활성화를 위해 5대 해양관광 프로젝트, 마리나, 짚트랙, 케이블카, 주남호 생태관광의 필요성도 제시한다. 이날 강연자리에는 원희룡 제주지사도 함께 참석해 제주와 창원의 관광과 문화 등 서로 협력과 상생의 길을 모색하는 방안을 얘기한다. 이날 특강은 지난해 11월 원 지사가 가졌던 창원시 공직자 대상 특강에 이어진 교차특강으로 마련됐다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 기은 지속가능경영보고서, LACP 비전 어워즈 '대상' "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[2017년 2월 10일 시·도 주요일정]부산 구,군 의장단 주피터 반대 기자회견·해군사관학교 입교식·제주도의회 문화관광스포츠위원회 제2차 회의 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR [2017년 2월 10일 시·도 주요일정]부산 구,군 의장단 주피터 반대 기자회견·해군사관학교 입교식·제주도의회 문화관광스포츠위원회 제2차 회의 2017-02-10 08:35:08 | 데스크 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [부산]▲부산 구·군 의장단 주피터 반대 기자회견(15:00 시의회 브리핑룸)[울산]▲울산시교육청 '나만의 책 이야기' 토크 콘서트(15:00 울산시교육청 대강당)[경남]▲해군사관학교 입교식(11:00 해사)[대구경북]▲콘텐츠코리아 랩'브랜딩 팝업스토어'(10:00 김광석길)[전북]▲남원시 농업인 월급제 협약식(10:00 남원시청)[대전충남]▲세종시 농특산물 공동브랜드 개발 연구용역 최종보고회(16:00 농업기술센터)[충북]▲충북지사 괴산군 방문(15:00 괴산군청)▲충북대, 누에산업RIS사업단 성과 전시회(14:00 개신문화관) [제주]▲제주도의회 문화관광스포츠위원회 제2차 회의(10:00 도의회)[국제](현지 시간)▲도널드 트럼프 미국 대통령·아베 신조 일본 총리 정상회담(워싱턴 백악관)[미디어펜=데스크] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>"사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 "사설 관광시설 조성에 제주도 소유 곶자왈까지 내줘" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2017.02.09 10:42 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 환경단체들, 제주사파리월드 도유지 임대 불허 촉구 제주시 구좌읍 일대에 조성되는 '제주 사파리월드' 사업예정지의 일부가 제주도 소유의 곶자왈로 확인돼 논란이 일 전망이다.곶자왈사람들과 제주환경운동연합, 제주참여환경연대는 9일 성명을 내고 "최근 곶자왈 내 개발사업이 잇따르는 가운데 제주도 소유의 곶자왈 마저 개발 사업으로 파괴될 위기에 놓여 제주도가 강조해온 곶자왈 보전정책이 뿌리 채 흔들리고 있다"고 규탄했다.'제주사파리월드 조성사업'은 지난달 13일부터 환경영향평가서 초안에 대한 주민공람이 이뤄지고 있다.이 사업은 구좌읍 동복리 산 1번지와 산 56번지 99만1072㎡ 부지에 관광호텔, 야외 사파리 등의 관광시설을 조성하는 내용으로 추진되고 있다. 사업예정지는 생태계가 가장 뛰어난 곶자왈 중 하나인 선흘곶 동백동산과 맞닿는 곶자왈이다.문제는 사업부지 전체면적 99만1072㎡ 중 25.5%인 25만2918㎡의 면적이 제주도가 소유한 도유지라는 점이다.이에 대해 환경단체들은 "이미 사업자는 제주도와의 임대계약을 통해 사업을 추진하겠다며 사업계획을 제출한 상태"라며 "현재 사업진행이 환경영향평가 초안 접수 단계까지 올 정도면 도유지 곶자왈에 대한 임대여부를 제주도와 사전협의했을 가능성도 있다"고 주장했다.이들 단체는 "곶자왈국립공원 추진 등 말로는 곶자왈 보전의지를 강조해 온 제주도가 뒤로는 도유지 곶자왈에 대한 개발사업을 묵인한 것이 아니냐는 의심을 살만하다"며 "제주도가 도유지 곶자왈에 대한 개발사업을 묵인했다면 도민 기만이며 몰랐다면 곶자왈 보전정책에 큰 허점"이라고 규정했다.특히 원희룡 제주도지사의 정책철학에 대해 의구심을 제기했다.원 지사는 지난달 26일 간담회에서 '현 도정은 보전에 중심을 두고 있지만 개발과 환경보전의 충돌 과정에서 적절히 이루도록 하기에는 어려운 점이 있고, 행정업무 처리에 현행 법규를 준수해 처리하고 있기 때문에 재산권을 제약하고 스톱시킬 수는 없다'고 주장했는데, 환경단체들은 "정작 도유지 곶자왈 마저 개발 사업에 내놓는다면 이는 거짓된 해명에 불과하다"고 꼬집었다.또 원 지사가 취임사에서 '삶의 근본이자 꿈이 시작된 이 땅, 어머니의 땅을 무분별한 개발로부터 지켜내겠다'고 다짐했던 것을 언급하며 "그 다짐을 도민의 땅인 도유지 곶자왈을 지키는 데서부터 실천해야 한다. 더 이상 곶자왈은 개발의 재물이 되어서는 안 된다"고 강조했다.그러면서 이들 단체는 "제주도는 제주 사파리월드 조성사업 예정부지의 도유지 곶자왈 임대 불허방침을 분명히 밝혀야 할 것"이라고 촉구했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광 성장 위한 토론회 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 크루즈 관광 성장 위한 토론회 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 크루즈 관광 성장 위한 토론회 지화 승인 2017.02.08 10:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도는 지역상권 연계 경제활성화 대책 수립 이후, 크루즈 관광 질적 성장을 위한 협의회를 구성하고 오는 9일 오전 10시 제주도청 1청사 4층 한라홀에서 전문가, 지역상권, 협의체 등과 끝장토론회를 개최한다. 지난해 제주에는 크루즈 관광객 120만명 유치로 쇼핑금액, 항만수입 등 총 6,502억 원의 지역경제 파급효과를 달성한 것으로 분석됐으나, 실제 지역 상권에는 큰 도움이 되지 않는다는 여론이 조성되었었다. 이에 지역상권 연계 경제활성화 대책의 일환으로 관련 분야의 목소리와 다양한 의견을 수렴해 정책에 반영하고자 15명으로 구성된 크루즈 관광의 질적 성장 협의회를 운영하게 됐다. 학계, 전문가, 지역 상권 대표로 구성된 협의회에서는 앞으로 크루즈관광 수용태세 강화, 크루즈 관광상품 개발 및 실천 방안 등 지역경제 활성화를 위한 기관별 역할을 분담하고 대책을 마련할 전망이다. 특히 크루즈 관광객 증가로 인한 경제적 혜택이 실질적으로 도민들에게 전달될 수 있도록 관련 프로그램을 개발하고 운영함으로써 크루즈산업 육성과 저가 관광개선 등을 도모할 계획이다. 이번 첫 협의회에서는 크루즈관광객 지역상권 유치방안과 추후 강정항으로 입항하게 될 크루즈관광객 대상 산남지역 내 프로그램 운영방안 등에 대한 심도있는 논의가 진행될 계획이다. 도는 이번 회의를 통해 제주 크루즈 관광에 대한 각계각층의 현안분석과 지역경제 활성화를 위한 대안들이 수렴될 것으로 기대하고 있다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 미디어 오라관광단지 개발문제 집중보도, '제주도 기자상' 수상 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.02.07 15:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × KBS 유용두.유승용.양경배 기자 '취재부문' MBC 권혁태.김승범 기자 '기획취재' 부문 수상 제주도기자협회(회장 김대휘)는 7일 2016년도 제주도기자상 수상작과 수상자를 선정, 발표했다.취재 부문에서는 14편의 출품작 가운데 KBS제주방송 유용두·유승용·양경배 기자의 ‘오라관광단지 연속보도’가 수상작으로 결정됐다. 이 보도는 제주지역 역대 최대인 사업비 6조원 규모로 추진되고 있는 오라관광단지 개발 사업에 따른 각종 문제 등을 지속적으로 집요하게 파고들어 공론화함으로써 정책의 방향타를 제시하는 등 언론 본연의 역할인 검증과 감시 기능에 충실했다는 평가를 받았다.기획취재 부문에서는 6편의 출품작 중 제주mbc 권혁태·김승범기자의 ‘도시, 기억 너머’가 수상작으로 선정됐다. 이 기획은 제주 원도심 재생사업의 방향을 원도심이 간직한 역사성, 확장성, 문화적 다양성을 중심으로 해외 선진지의 비교 사례를 통해 다각도로 정감 있게 접근함으로써 잔잔한 공감대를 이끌어냈다는 평가를 받았다.한편 편집 부문에서는 제민일보 이소진 기자의 ‘week &amp; 팡-제주의 과거·현재·미래 만나는 원도심’, 보도사진영상 부문에서는 한라일보 강경민 기자의 ‘국정농단 분노의 촛불 행렬’이 수상했다.시상식은 오는 16일 오후 7시 메종글래드 제주호텔 2층 크리스탈룸에서 열리는 ‘2017년 제주도기자협회 신년하례회'에서 이뤄진다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, MICE 관광객 3만 유치…전년比 17.3% ↑ 기자명 고병수 기자 입력 2017.02.06 11:30 수정 2017.02.06 11:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제회의 시설용량부족 대형, 초대형 회의 유치는 불능 한계 봉착 ▲ ICC제주 국제회의 개최 모습. (제주=국제뉴스) 고병수 기자 = 제주도에 고부가가치 국제회의 등 MICE 관광객이 총 43건에 3만1152명이 제주를 방문한다. 는 작년 300명이상 국제회의 참가자수 42건에 2만6557명으로 회의 관광객이 17.3% 늘어난 수치다.6일 제주특별자치도와 국제회의유치 전담조직인 제주컨벤션뷰로에 따르면 2017년 국제회의에 참가하는 고부가가치의 MICE 관광객 입도 전망이 밝다고 밝혔다.올해 3월 '국제키와니스 아태대회' 2천명을 시작으로 아시아인프라투자은행(AIIB)연차총회 2천명, 'IEEE 의학생명공학회 컨퍼런스 3천명 등 2천명이상 대형회의와 "2017 대한항공공학회 국제학술대회(1,300명)' 등 300명이상 규모의 국제회의가 참가인원 31,152명에 총43건 개최 예정이다.MICE 최대 국제기구 ICCA(세계국제회의협회)의 보고서에 따르면 국제회의 개최일수는 감소하고 참가자의 소비가 일반관광객보다 높아 국제회의 유치 및 참가자 증대가 그 지역 MICE산업 발전과 지역경제 활성화를 위한 중요한 요소로 부상하고 있다는 것.이에 따라 제주도와 제주컨벤션뷰로는 고부가 국제회의 유치 증대를 위해 학․협회 대상 MICE설명회와 MICE산업 대전개최 등의 다양한 MICE마케팅 활동을 지속 추진할 계획이다.또한 제주특별자치도는 MICE 행사 유치뿐만이 아니라 MICE 개최지 경쟁력도 강화시켜 나갈 계획이다.이를 위해 "2017년 국내․국제회의 개최 인센티브지원 사업"으로 개최지원 예산을 작년 3.5억원에서 4.2억원으로 20% 증액해 고부가 국제회의 개최증대에 나서고 있다. 특히 제주에 온 MICE 참가자들이 관광에 나서도록 행사장 내에 '제주 홍보관'을 운영해 관광정보를 제공하고 있고 교통·관광카드 형식의 MICE 카드도 배포해 주변 관광지나 음식점 등에 들러 제주문화를 체험하도록 유도하고 있다.이승찬 관광국장은 "올해 도내 MICE업체와 공동으로 국제MICE전문 박람회 및 MICE로드쇼 등에 참가할 예정"이라며 "이런 과정을 통해 국제MICE 네트워크를 구축시켜 지역 MICE 업체들의 경쟁력을 강화시켜 나갈 계획"이라고 말했다.한편 ICC제주의 최대 수용시설이 4300명으로 이를 넘는 대형 및 초대형 국제회의 등은 유치할 수 없다는 시설의 한계가 분명히 있다는 것. 이에 대형 초대형 국제회의는 육지부의 대형 컨벤션이나 해외로 발길을 돌릴 수밖에 없다.이에 MICE산업 유치를 위해 시설 확충 등 제주도의 중장기적인 노력이 필요하다는 지적이다.관계자는 "올해 안에 좋은 소식이 들릴 수이 있을 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 호반, 제주도 ‘퍼시픽 랜드’ 인수···관광·레저 확대 김성배 기자 등록 2017.02.03 11:15 호반은 제주도 중문 관광단지 내(內)에 위치한 ‘퍼시픽 랜드’(제주도 서귀포시 색달동 2950-4번지 외)를 인수하고 레저 및 관광 사업을 확대한다고 3일 밝혔다. 퍼시픽 랜드가 위치한 제주 중문 관광단지는 제주 서귀포시 일대에 조성된 종합관광휴양단지로 제주 신라호텔, 롯데호텔 등 5성급 호텔이 모여 있다. 주변에는 테디베어 뮤지엄, 초콜릿 랜드, 천제연 폭포, 중문 면세점, 여미지 식물원 등 다양한 볼거리와 체험도 가능하다. 중문 해수욕장과 인접한 퍼시픽 랜드는 현재 돌고래 공연장, F&amp;B(식당, 베이커리), 요트 투어 등 마리나 시설을 운영 중이다. 호반은 중문 해수욕장과 직접 연결되는 약 5만여m²(1만 5000 여 평)의 부지에 특1급 호텔 및 빌라 등의 숙박 시설과, 복합 휴양 문화시설 등을 신축할 예정이다. 또한, 제주도 호텔 부지 중 유일하게 마리나 시설(1만여 평)을 보유하고 있어서 개발 후 중문 관광단지 내에서도 명소로 자리 잡을 것으로 보인다. 호반 관계자는 “퍼시픽 랜드는 제주도에서 입지가 뛰어난 중문 관광단지내 위치해 있다”며, “바다조망이 가능한 호텔, 빌라, 휴양문화시설 등을 신축해서 복합리조트로 개발할 예정이다”고 말했다. 김성배 기자 ksb@ &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 흥국생명의 '도 넘은 갑질'···설계사에게 나눠준 볼펜 값까지 급여에 반영 1호 빅테크 보험사 '카카오페이손보' 첫 상품···온라인 사기 보장 '금융안심보험' 창립 70주년 맞은 한화그룹···김승연 회장 "어제를 경계하고 늘 새로워져야" 증시서 사라지는 '코로나 이슈'···가스·배터리株만 웃었다 美경제학자 버냉키·다이아몬드·딥버그, 노벨경제학상 수상 영예 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 절물자연휴양림, 겨울철 관광지로 인기 - 골프타임즈 시작페이지 즐겨찾기 추가 UPDATE : 2022.10.11 화 12:13 처음으로 로그인 회원가입 전체기사 골프종합 골프대회 스토리 영상뉴스 토너먼트 인터뷰 뉴스 탐방(골프장)·피플 피플 테마 선수정보-남자 선수정보-여자 투어일정 칼럼 골프장 펀펀 회원권 동호인탐방 레슨 1분 레슨(동영상) 전문가 레슨 달인시리즈 골프닥터 골프 심리학 주니어 골프레슨 Q&amp;A 골프룰 골프이러닝(동영상) 용품 용품업체 업체탐방 골프관련산업 일반기업 제품 리뷰 라이프 건강 여행 자동차 FOOD 레저 스타일 IT 사회 재테크, 창업 건설, 부동산 문화 문학 역사 예술 연예 문화 핫이슈 스포츠 원형연구 그림읽기 포토 포토스토리 포토-골프 포토뉴스 레이싱걸 카드뉴스 사진미학 동호인 사진첩 동영상 영상레슨 골프 예의와 룰 영상-대회 영상-일반 골프정보 골프규칙 골프용어사전 골프톡톡(룰/매너) 초보골퍼 지침서 골프명언 골프여담 유머마당 골프타임즈TV 쇼핑몰 골프클럽 골프용품 일반용품 골프투어(국내/해외) 제품 후기 공지 기사검색 트위터 페이스북 RSS 모바일웹 여백 여백 HOME 라이프 여행 제주도 절물자연휴양림, 겨울철 관광지로 인기눈길 트레킹 즐겨...한국관광100선 선정 김한솔 기자l승인2017.02.03l수정2017.02.03 03:21 트위터 페이스북 크게 작게 메일보내기 인쇄하기 크게 작게 메일 인쇄 신고 ▲ 겨울철 관광지로 인기 있는 제주도 절물자연휴양림 [골프타임즈=김한솔 기자] 제주도 절물자연휴양림이 겨울철 관광지로 각광을 받고 있다. 절물자연휴양림 무장애 길(5개 코스 7km)은 눈 덮인 삼나무 숲이 이국적이며 독특한 겨울 숲 정취를 감상하기 위해 많은 관광객들이 찾고 있다. 장생의 숲길( 11.1km), 숫모르편백숲길(8km)은 평탄한 지형으로 눈길 트레킹을 즐기려는 이용객들의 추운 겨울에도 끊임없이 찾고 있다. 절물자연휴양림은 지난해 입장객이 754천명을 돌파하며 한국관광의 별로 선정되었다. 한국관광100선으로 선정되면서 전국 최고의 산림휴양관광지의 명성을 얻었다. 겨울철 시설물 동파방지 및 미끄럼 방지 시설 설치와 평상, 의자 등 이용객 안전관리를 위해 편의시설도 정비했다. 김한솔 기자｜master@thegolftimes.co.kr &lt; 저작권자 © 골프타임즈 무단전재 및 재배포금지 &gt; 메일보내기 인쇄하기 트윗하기 관련기사 [여행] 한국관광 100선 ‘자연의 아름다움에 미치다’ [문학] 여행 작가 패트리샤 슐츠와의 만남 ‘여행자들의 길라잡이 역할’ 천년고도의 숨결 ‘경주여행’ 느림의 미학 자전거로 탐(耽)하다 [EPGA] 두바이클래식, 중동에서도 흔들리는 타이거 우즈 ‘위태롭다’ 전인지ㆍ박성현, LG전자와 후원 협약 ‘잠재력 인정’ 인기기사 [KPGA] 제네시스 챔피언십 포토콜 진행...3년 만에 유관중 대회[최재인의 골프 칼럼] “사장님~ 나이스 샷!”(21)김시우, PGA 슈라이너스 오픈 첫날 공동 2위… 디펜딩 임성재 공동 4위 순항LPGA 메디힐 챔피언십, 첫날 교포선수 앨리슨 리 공동 2위...김아림ㆍ최운정ㆍ강혜지 공동 17위디펜딩 챔피언 이재경, 첫날 이형준ㆍ서요섭과 ‘11시 40분 1번홀’ 동반 플레이 김영수 포토뉴스 [포토-하이트진로 챔피언십] 박성현ㆍ노승희ㆍ오지현ㆍ박지영ㆍ지한솔ㆍ임희정ㆍ유해란ㆍ정윤지의 1번홀 티샷 [포토-하이트진로 챔피언십] 박성현ㆍ노승... [포토-제네시스 챔피언십] 생애 첫 승 확정 후 환호하는 챔피언 김영수 [포토-제네시스 챔피언십] 생애 첫 승 ... [포토-제네시스 챔피언십] 우승 트로피를 들고 포즈를 취하는 김영수 [포토-제네시스 챔피언십] 우승 트로피를... [포토-제네시스 챔피언십] 김영수의 1번홀 드라이브샷 [포토-제네시스 챔피언십] 김영수의 1번... 여백 여백 여백 여백 여백 레이싱걸 핫포토 레이싱모델 김세라, 2021시즌 일정 마쳐...“승부 세계를 함께 해 가슴 벅차” [2016서울모터쇼] 모터사이클과 바이크걸, 관람객의 눈을 홀리다 레이싱 모델 구지성, 낮과 밤 다른 이중매력 발산... 아우라 짱 [포토-레이싱걸] [2015서울모토쇼] 레이싱모델 임민영 ‘시선을 유혹하는 몸짓’ [포토-레이싱걸] [2015서울모토쇼] 레이싱모델 한채이 ‘볼륨 있는 몸매’ 여백 사진미학 누드 행운의 홀인원이라도 했나 앗 따거~ 우렁각시 곡선의 대결 포즈 ‘어드레스’ 여백 여백 골프피플 [KPGA] 한장상 인비테이셔널 “생전에 내 이름으로 대회를...고맙고 함께 할 수 있어 기쁘다” 급성 골수성 백혈병 극복 정희도, 아시아드 부산오픈 출전 “후회 없는 경기를 펼치고 싶다” 우리금융 챔피언십 출전 임성재...“마스터즈 우승이 꿈...‘그린재킷‘ 입어보고 싶다“ K-10클럽 가입한 최가람, “최다 출전 기록 세울 때까지 정규투어 뛸래요” KLPGA 박민지 4관왕, “매년 1승도 잘했는데 1승 이상을 해 행복해요” 여백 동영상 [영상] PO 2차 BMW 챔피언십 FR 짜릿한 20m 버디 퍼트로 우승한 존 람 [영상] PO 2차 BMW 챔피언십 FR 연장 이끌어낸 더스틴 존슨의 13m 버디 퍼트 PGA 투어 윈덤 챔피언십 3라운드 12번 홀, 아쉬워하는 김시우 PGA 투어 윈덤 챔피언십 3라운드, 홀인원 후 방긋 웃는 김시우 [영상-원포인트레슨] 이수민의 로브샷...어렵지 않다 여백 여백 문화 핫이슈 '머니게임' 육지담 해명과 달라...이루리가 폭로한 내용은? '그것이 알고싶다' 김원장의 정체, 유령 작사가 있었다? [궁금한 이야기Y] '소금물 관장'...유명 요리가 강 원장의 정체는? "오히려 괴롭힘 당해"...박혜수, 피범벅 폭행 루머 입 열었다 액터빌리지 아역 배우 황유이, NGO 희망친구 기아대책 모델 발탁 여백 신문사소개ㆍ골프장TF전략사업ㆍ기사제보ㆍ광고문의ㆍ개인정보취급방침ㆍ청소년보호정책ㆍ이메일무단수집거부 서울특별시 중구 충무로2가 50-5 태호빌딩 505호  |  발행·편집인 : 문정호  |  청소년보호책임자 : 문정호  |  전화 : 02-2277-7371  |  팩스 : 02-2277-1480  |  이메일 : master@thegolftimes.co.kr 제호명 : 골프타임즈  |  문광부등록번호: 서울 아 02033  |  사업자등록번호 : 202-16-92335  |  통신판매업사업자번호 : 제2012-서울중구-0827호  |  출원번호 : 40-2012-0016887 골프타임즈는 상표법에 의거하여 특허청에 상표(국,영문)등록이 되어있습니다.  |  골프타임즈의 모든 콘텐츠는 저작권법 보호를 받으며 무단복제 및 복사 배포를 금합니다. Copyright © 2022 골프타임즈. All rights reserved.</t>
+  </si>
+  <si>
+    <t>호반건설주택, 제주도 `퍼시픽 랜드` 인수…레저·관광사업 확대 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 호반건설주택, 제주도 '퍼시픽 랜드' 인수…레저·관광사업 확대 조성신 기자 입력 : 2017.02.03 09:48:10 호반건설주택이 제주도에서 레저·관광사업을 확대한다. 호반건설주택은 제주도 내 인기 관광지인 중문 관광단지 내에 있는 '퍼시픽 랜드'(제주도 서귀포시 색달동 2950-4번지 외)를 인수했다고 3일 밝혔다. 현재 퍼시픽랜드 돌고래 공연장, 식음료(F&amp;B) 매장이 운영 중이다. 특히 제주도 호텔부지 중 유일하게 마리나시설(1만여평)을 보유하고 있다. 호반건설주택은 중문해수욕장과 직접 연결되는 약 5만m²(1만5000여평)의 부지에 1급 호텔, 빌라, 휴양문화시설 등이 들어선 복합리조트로 개발할 예정이다. [디지털뉴스국 조성신 기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #호반건설주택#퍼시픽랜드#제주도#중문관광단지#복합리조트#호텔 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 37분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 34분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   19시간 4분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 34분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 호반건설주택, 제주도 `퍼시픽 랜드` 인수…레저·관광사업 확대 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도 “중국인 관광객” 10명 종적 감춰 &lt; 사건.사고 &lt; 사회 &lt; 시사&amp;이슈 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 12:14 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 “중국인 관광객” 10명 종적 감춰 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 시사&amp;이슈 사회 사건.사고 제주도 “중국인 관광객” 10명 종적 감춰 기자명 박상민 기자 입력 2017.02.01 18:47 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 무사증 제도 개선 필요… [시사포커스/박상민기자] 제주도로 관광 온 중국인 10명이 사라져 관계 기관이 수사 중이다. 1일 제주출입국관리사무소 등에 따르면 지난달 24일 크루즈 타고 제주도로 온 중국인 관광객 10명이 여행 중 사라져 이들 행방을 뒤쫓는 중이다. 이 중국인 10명은 남성 3명과 여성 7명으로 구성되어 있으며, 제주도에 도착한 당일인 지난달 24일부터 사라지기 시작했다. 먼저 6명은 제주 시내에 위치한 한 면세점에서 사라지고 2명은 민속자연사박물관, 남은 2명은 크루즈터미널 이후로 종적을 감췄다. 지난 2006년부터 제주도는 무사증 제도를 통해 192개국의 외국인들이 비자 없이 30일 동안 지낼 수 있도록 했다. 이에 제주도는 관광객이 크게 늘어났지만 그만큼 밀입국 외국인도 큰 폭으로 높아졌고 무사증 제도는 점차 밀입국의 통로로 악용되어가고 있는 실정이다. 한편 출입국관리사무소는 현재 이들의 행방을 뒤쫓고 있다. 박상민 기자 sisafocus05@sisafocus.co.kr 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 [포토] 3년 만에 정조대왕 능행차하시다. [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 2 [포토] 3년 만에 정조대왕 능행차하시다. 3 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 4 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 5 3년간 전기車 3배 늘었지만…고속도로 충전시설 '턱없이 부족' 6 [기획] 국감 화두로 떠오른 문재인, 민주당 ‘文 구하기’ 성공할까 7 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 8 [국감] 모다모다샴푸 위해성 성분 사용 논란, 보건복지위 국감장 후끈 9 [기획] 게이트 전쟁? 與 “성남FC·새만금 게이트” vs 野 “대감 게이트” 10 [국감] 지성호 “난 인권유린국 출신, 기업 자유 보장‧근로자 보호하는 한국에 충격” 1 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 2 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 3 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 4 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 5 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 6 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 7 [포토] 3년 만에 정조대왕 능행차하시다. 8 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 9 공유 PM 업체들, ‘블루오션’ 전기자전거 사업 뛰어든다 10 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 1 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 2 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 3 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 4 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 7 [포토] 흥인지문 앞에서 육의전 축제 8 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 9 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 10 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 엑소 첸, 3년 만에 신곡 '사라지고 있어' 31일 발매 [시사포커스 / 이청원 기자] 그룹 엑소 첸이 3년 만에 새 솔로 앨범으로 귀환한다.11일 소속사 측은 첸이 오는 31일 세 번째 미니앨범 '사라지고 있어 (Last Scene)'... 드림캐쳐, '아포칼립스'로 6개월 만에 컴백 이현이, SBS플러스 '우아달 리턴즈' MC 발탁…10일 첫방 엘링 홀란드, 한니발 렉터 스타일 식단 공개로 충격… 20골 비결? [시사포커스 / 이근우 기자] 엘링 홀란드(22, 맨체스터 시티)의 식단에 현지 팬들이 큰 충격을 받았다.영국 매체 ‘데일리 메일’은 10일(한국시간) “홀란드는 이번 시즌 벌써 ... 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 건강 여행 인터뷰 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
   </si>
   <si>
     <t>"중국인 관광객 10명 제주도서 행방불명"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 중국인 관광객 10명 제주도서 행방불명 2017.02.01 18:17 [헤럴드경제] 제주를 방문한 중국인 관광객 10명 가량이 잠적했다. 이들은 국제 크루즈선으로 입국한 것으로 알려졌다.법무부 제주출입국관리사무소는 제주에 온 중국인 장모(58ㆍ여) 씨 등 가족 6명과 다른 일행 4명 등 총 10명이 제주서 사라졌다고 1일 밝혔다.이들이 타고 온 국제 크루즈는 지난달 24일 오후 3시 15분께 제주항 외항에 도착했다.장 씨 가족은 지난달 24일 오후 제주에 도착한 뒤 전세버스로 시내 면세점에 갔는데 그 후로 행방이 묘연한 상태다.다른 2명은 크루즈터미널에서 사라진 것으로 알려졌고, 다른 2명은 민속자연사박물관에서 다른 곳으로 이동하는 버스에 타지 않으면서 사라졌다.한편 이들이 탄 국제크루즈는 기항한 지 다음날인 25일 낮 12시 상하이로 출항한 것으로 밝혀졌다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
@@ -437,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +618,117 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
